--- a/vocabulary/test_bazy.xlsx
+++ b/vocabulary/test_bazy.xlsx
@@ -13,19 +13,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
-  <si>
-    <t>angielski</t>
-  </si>
-  <si>
-    <t>polski</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="566">
   <si>
     <t>downward</t>
   </si>
@@ -111,12 +106,6 @@
     <t>czarować, zaklinać</t>
   </si>
   <si>
-    <t>conjure up [ kandżer ap]</t>
-  </si>
-  <si>
-    <t>wyczarować</t>
-  </si>
-  <si>
     <t>conform to</t>
   </si>
   <si>
@@ -129,12 +118,6 @@
     <t>pokonywać</t>
   </si>
   <si>
-    <t>awfully [oofli]</t>
-  </si>
-  <si>
-    <t>strasznie, okropnie</t>
-  </si>
-  <si>
     <t>haircut</t>
   </si>
   <si>
@@ -175,18 +158,1745 @@
   </si>
   <si>
     <t>odzież</t>
+  </si>
+  <si>
+    <t>fond of</t>
+  </si>
+  <si>
+    <t>keen on</t>
+  </si>
+  <si>
+    <t>sullen</t>
+  </si>
+  <si>
+    <t>drazliw</t>
+  </si>
+  <si>
+    <t>tough</t>
+  </si>
+  <si>
+    <t>thorn</t>
+  </si>
+  <si>
+    <t>kolec</t>
+  </si>
+  <si>
+    <t>do my hair</t>
+  </si>
+  <si>
+    <t>uczesac</t>
+  </si>
+  <si>
+    <t>do the washing up</t>
+  </si>
+  <si>
+    <t>pozmywac</t>
+  </si>
+  <si>
+    <t>make certain</t>
+  </si>
+  <si>
+    <t>upewnic sie</t>
+  </si>
+  <si>
+    <t>make fun of</t>
+  </si>
+  <si>
+    <t>wysmiac</t>
+  </si>
+  <si>
+    <t>at a slow pace</t>
+  </si>
+  <si>
+    <t>w wolnym</t>
+  </si>
+  <si>
+    <t>lead to</t>
+  </si>
+  <si>
+    <t>prowadzi do</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bother </t>
+  </si>
+  <si>
+    <t xml:space="preserve">niepokoic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">disturb </t>
+  </si>
+  <si>
+    <t>przeszkadzac</t>
+  </si>
+  <si>
+    <t>come into</t>
+  </si>
+  <si>
+    <t>odziedziczyc</t>
+  </si>
+  <si>
+    <t>come down with</t>
+  </si>
+  <si>
+    <t>rochorowac</t>
+  </si>
+  <si>
+    <t>get over</t>
+  </si>
+  <si>
+    <t>przezwyciezyc</t>
+  </si>
+  <si>
+    <t>get down</t>
+  </si>
+  <si>
+    <t>przytlaczac</t>
+  </si>
+  <si>
+    <t>bring on</t>
+  </si>
+  <si>
+    <t>doprowadzic</t>
+  </si>
+  <si>
+    <t>bring about</t>
+  </si>
+  <si>
+    <t>wywolac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cite </t>
+  </si>
+  <si>
+    <t>cytowac</t>
+  </si>
+  <si>
+    <t>in a full swing</t>
+  </si>
+  <si>
+    <t>w pelni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drown </t>
+  </si>
+  <si>
+    <t>topic sie</t>
+  </si>
+  <si>
+    <t>downsizing</t>
+  </si>
+  <si>
+    <t>redukcja</t>
+  </si>
+  <si>
+    <t>come on</t>
+  </si>
+  <si>
+    <t>Przestań !</t>
+  </si>
+  <si>
+    <t>gossips</t>
+  </si>
+  <si>
+    <t>pogaduchy plotki</t>
+  </si>
+  <si>
+    <t>wet blanket</t>
+  </si>
+  <si>
+    <t>maruda (osoba)</t>
+  </si>
+  <si>
+    <t>whorish</t>
+  </si>
+  <si>
+    <t>dziwkarski</t>
+  </si>
+  <si>
+    <t>ostra (wypowiedź)</t>
+  </si>
+  <si>
+    <t>flip a coin</t>
+  </si>
+  <si>
+    <t>rzucenie monetą</t>
+  </si>
+  <si>
+    <t>get back at sb</t>
+  </si>
+  <si>
+    <t>odegrać się na kimś</t>
+  </si>
+  <si>
+    <t>What does that even mean ?</t>
+  </si>
+  <si>
+    <t>Co to wogóle znaczy</t>
+  </si>
+  <si>
+    <t>pursue</t>
+  </si>
+  <si>
+    <t>podążać śledzić</t>
+  </si>
+  <si>
+    <t>giggle</t>
+  </si>
+  <si>
+    <t>chichotać</t>
+  </si>
+  <si>
+    <t>chat</t>
+  </si>
+  <si>
+    <t>gawędzić</t>
+  </si>
+  <si>
+    <t>pretend</t>
+  </si>
+  <si>
+    <t>udawać</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>nadużycie</t>
+  </si>
+  <si>
+    <t>chummy</t>
+  </si>
+  <si>
+    <t>zaprzyjaźniony</t>
+  </si>
+  <si>
+    <t>savour</t>
+  </si>
+  <si>
+    <t>smak</t>
+  </si>
+  <si>
+    <t>recipe [rEsipi]</t>
+  </si>
+  <si>
+    <t>przepis</t>
+  </si>
+  <si>
+    <t>frankly</t>
+  </si>
+  <si>
+    <t>szczerze</t>
+  </si>
+  <si>
+    <t>freaked</t>
+  </si>
+  <si>
+    <t>przerażony</t>
+  </si>
+  <si>
+    <t>suppose</t>
+  </si>
+  <si>
+    <t>przypuszczać</t>
+  </si>
+  <si>
+    <t>to be supposed to</t>
+  </si>
+  <si>
+    <t>mieć obowiązek</t>
+  </si>
+  <si>
+    <t>tie</t>
+  </si>
+  <si>
+    <t>wiązać</t>
+  </si>
+  <si>
+    <t>vendor</t>
+  </si>
+  <si>
+    <t>sprzedawca</t>
+  </si>
+  <si>
+    <t>viollence</t>
+  </si>
+  <si>
+    <t>przemoc</t>
+  </si>
+  <si>
+    <t>solicitor</t>
+  </si>
+  <si>
+    <t>rzdziej sprzedawca</t>
+  </si>
+  <si>
+    <t>decisiveness</t>
+  </si>
+  <si>
+    <t>stanowczość</t>
+  </si>
+  <si>
+    <t>subscrobe to</t>
+  </si>
+  <si>
+    <t>subskrybować coś</t>
+  </si>
+  <si>
+    <t>illumminating</t>
+  </si>
+  <si>
+    <t>pouczający</t>
+  </si>
+  <si>
+    <t>make yourself at home</t>
+  </si>
+  <si>
+    <t>czuj się jak u siebie</t>
+  </si>
+  <si>
+    <t>put up</t>
+  </si>
+  <si>
+    <t>postawić wznieść coś</t>
+  </si>
+  <si>
+    <t>jealous</t>
+  </si>
+  <si>
+    <t>zazdrosny</t>
+  </si>
+  <si>
+    <t>though</t>
+  </si>
+  <si>
+    <t>chociaż jednakowoż</t>
+  </si>
+  <si>
+    <t>suit you</t>
+  </si>
+  <si>
+    <t>pasuje ci</t>
+  </si>
+  <si>
+    <t>purse</t>
+  </si>
+  <si>
+    <t>torebka portmonetka</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I would love to</t>
+  </si>
+  <si>
+    <t>bardzo chciałbym</t>
+  </si>
+  <si>
+    <t>Why don't you get on that ?</t>
+  </si>
+  <si>
+    <t>Może się za nią weźmiesz?</t>
+  </si>
+  <si>
+    <t>primarily</t>
+  </si>
+  <si>
+    <t>pierwotnie zasadniczo</t>
+  </si>
+  <si>
+    <t>If you hit a stall you have</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a jakby co masz </t>
+  </si>
+  <si>
+    <t>a perfect fall back.</t>
+  </si>
+  <si>
+    <t>świetny wykręt</t>
+  </si>
+  <si>
+    <t>that's not necessarily true.</t>
+  </si>
+  <si>
+    <t>to nie do końca prawda</t>
+  </si>
+  <si>
+    <t>prying out</t>
+  </si>
+  <si>
+    <t>podważyć</t>
+  </si>
+  <si>
+    <t>You're not prying this out of my hands.</t>
+  </si>
+  <si>
+    <t>Nie zabierzesz mi tego</t>
+  </si>
+  <si>
+    <t>I could give you a ride home</t>
+  </si>
+  <si>
+    <t>mogę cię podrzucić do domu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I don't want to inconvenience you</t>
+  </si>
+  <si>
+    <t>nie chcę sprawiać kłopotu</t>
+  </si>
+  <si>
+    <t>I don't know how I feel</t>
+  </si>
+  <si>
+    <t>nie wiem co czuję</t>
+  </si>
+  <si>
+    <t>Thoroughness</t>
+  </si>
+  <si>
+    <t>dokładność</t>
+  </si>
+  <si>
+    <t>cut it out</t>
+  </si>
+  <si>
+    <t>przestań (to robić)</t>
+  </si>
+  <si>
+    <t>That's what I'm best known for</t>
+  </si>
+  <si>
+    <t>z tego jestem najlepiej znany</t>
+  </si>
+  <si>
+    <t>the last straw</t>
+  </si>
+  <si>
+    <t>kropla która przepełnia kielich</t>
+  </si>
+  <si>
+    <t>woman are atracted to power</t>
+  </si>
+  <si>
+    <t>Kobiety przyciąga władza</t>
+  </si>
+  <si>
+    <t>No to wracam</t>
+  </si>
+  <si>
+    <t>I'm gonna head back.</t>
+  </si>
+  <si>
+    <t>series = serial</t>
+  </si>
+  <si>
+    <t>serial</t>
+  </si>
+  <si>
+    <t>in the near future</t>
+  </si>
+  <si>
+    <t>w najbliższej przyszłości</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprinkle - </t>
+  </si>
+  <si>
+    <t>oproszyc  posypac</t>
+  </si>
+  <si>
+    <t>drain</t>
+  </si>
+  <si>
+    <t>odcedzic</t>
+  </si>
+  <si>
+    <t>odd</t>
+  </si>
+  <si>
+    <t>dziwny, niepasujacy, nieparzysty</t>
+  </si>
+  <si>
+    <t>plain</t>
+  </si>
+  <si>
+    <t>zwykly,</t>
+  </si>
+  <si>
+    <t>self raising</t>
+  </si>
+  <si>
+    <t>z dodatkiem proszku do pieczenie</t>
+  </si>
+  <si>
+    <t>cane</t>
+  </si>
+  <si>
+    <t>trzcina</t>
+  </si>
+  <si>
+    <t>icing</t>
+  </si>
+  <si>
+    <t>lukier</t>
+  </si>
+  <si>
+    <t>grate</t>
+  </si>
+  <si>
+    <t>trzec</t>
+  </si>
+  <si>
+    <t>unripe</t>
+  </si>
+  <si>
+    <t>niedojrzaly</t>
+  </si>
+  <si>
+    <t>raw</t>
+  </si>
+  <si>
+    <t>nieprzetworzony, surowy</t>
+  </si>
+  <si>
+    <t>rise</t>
+  </si>
+  <si>
+    <t>podniesc sie</t>
+  </si>
+  <si>
+    <t>raise</t>
+  </si>
+  <si>
+    <t>podniesc cos</t>
+  </si>
+  <si>
+    <t>arise</t>
+  </si>
+  <si>
+    <t>powstac, buntowac sie</t>
+  </si>
+  <si>
+    <t>grow up</t>
+  </si>
+  <si>
+    <t>dorastac</t>
+  </si>
+  <si>
+    <t>take out</t>
+  </si>
+  <si>
+    <t>wyrwac</t>
+  </si>
+  <si>
+    <t>false teeth</t>
+  </si>
+  <si>
+    <t>sztuczne zeby</t>
+  </si>
+  <si>
+    <t>artificial</t>
+  </si>
+  <si>
+    <t>sztuczny</t>
+  </si>
+  <si>
+    <t>counterfeit</t>
+  </si>
+  <si>
+    <t>falszywy, podrobiony</t>
+  </si>
+  <si>
+    <t>lean</t>
+  </si>
+  <si>
+    <t>chudy</t>
+  </si>
+  <si>
+    <t>weaken</t>
+  </si>
+  <si>
+    <t>oslabic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">examine </t>
+  </si>
+  <si>
+    <t>badac</t>
+  </si>
+  <si>
+    <t>shrink</t>
+  </si>
+  <si>
+    <t>kurczyc</t>
+  </si>
+  <si>
+    <t>prescription</t>
+  </si>
+  <si>
+    <t>recepta medyczna</t>
+  </si>
+  <si>
+    <t>receipt /risit</t>
+  </si>
+  <si>
+    <t>paragon</t>
+  </si>
+  <si>
+    <t>well-fed</t>
+  </si>
+  <si>
+    <t>dobrze odzywiny</t>
+  </si>
+  <si>
+    <t>honest</t>
+  </si>
+  <si>
+    <t>uczciwy, szczery</t>
+  </si>
+  <si>
+    <t>feature</t>
+  </si>
+  <si>
+    <t>cecha</t>
+  </si>
+  <si>
+    <t>cheeky</t>
+  </si>
+  <si>
+    <t>zarozumialy</t>
+  </si>
+  <si>
+    <t>malicious</t>
+  </si>
+  <si>
+    <t>zlosliwy</t>
+  </si>
+  <si>
+    <t>I vouched for you in front of</t>
+  </si>
+  <si>
+    <t>ręczyłem za ciebie przed (kimś)</t>
+  </si>
+  <si>
+    <t>Keep me out of it</t>
+  </si>
+  <si>
+    <t>nie mieszaj mnie do tego</t>
+  </si>
+  <si>
+    <t>być przybitym</t>
+  </si>
+  <si>
+    <t>get down to</t>
+  </si>
+  <si>
+    <t>zabrać się do czegoś</t>
+  </si>
+  <si>
+    <t>engagement shower</t>
+  </si>
+  <si>
+    <t>przyjęcie zaręczynowe</t>
+  </si>
+  <si>
+    <t>one o clock sharp</t>
+  </si>
+  <si>
+    <t>dokładnie o pierwszej</t>
+  </si>
+  <si>
+    <t>You can dish it out but you can't take it</t>
+  </si>
+  <si>
+    <t>ktoś może krytykować, ale jego już nie można</t>
+  </si>
+  <si>
+    <t>have it your way</t>
+  </si>
+  <si>
+    <t>niech będzie tak, jak chcecie</t>
+  </si>
+  <si>
+    <t>grumble</t>
+  </si>
+  <si>
+    <t>marudzić</t>
+  </si>
+  <si>
+    <t>What's that supposed to mean ?</t>
+  </si>
+  <si>
+    <t>co to miało znaczyć?</t>
+  </si>
+  <si>
+    <t>it was kind of my thing</t>
+  </si>
+  <si>
+    <t>to była moja działka</t>
+  </si>
+  <si>
+    <t>trash talk</t>
+  </si>
+  <si>
+    <t>groźba w sporcie</t>
+  </si>
+  <si>
+    <t>stretch</t>
+  </si>
+  <si>
+    <t>rozciągać się</t>
+  </si>
+  <si>
+    <t>flagrant / fleigrant</t>
+  </si>
+  <si>
+    <t>szokujące rażące</t>
+  </si>
+  <si>
+    <t>this won't fly</t>
+  </si>
+  <si>
+    <t>to nie przejdzie</t>
+  </si>
+  <si>
+    <t>a fact of life</t>
+  </si>
+  <si>
+    <t>sth unpleasant that cannot be avoided</t>
+  </si>
+  <si>
+    <t>keep ones mind on a job</t>
+  </si>
+  <si>
+    <t>jump at sth</t>
+  </si>
+  <si>
+    <t>to accept something eagerly</t>
+  </si>
+  <si>
+    <t>by far</t>
+  </si>
+  <si>
+    <t>daleko bardziej</t>
+  </si>
+  <si>
+    <t>you would be suprised at sth</t>
+  </si>
+  <si>
+    <t>byłbyś zdziwiony czymś</t>
+  </si>
+  <si>
+    <t>is nothing to it</t>
+  </si>
+  <si>
+    <t>to jest łatwe  to nic takiego</t>
+  </si>
+  <si>
+    <t>you would'nt think</t>
+  </si>
+  <si>
+    <t>nie pomyślałbyś nawet</t>
+  </si>
+  <si>
+    <t>put a cast</t>
+  </si>
+  <si>
+    <t>nałożyć gips</t>
+  </si>
+  <si>
+    <t>distressed</t>
+  </si>
+  <si>
+    <t>strapiony</t>
+  </si>
+  <si>
+    <t>be in distress</t>
+  </si>
+  <si>
+    <t>być w rozpaczliwym położeniu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disobedience </t>
+  </si>
+  <si>
+    <t>brak posluszenstwa</t>
+  </si>
+  <si>
+    <t>narrow-mindedness</t>
+  </si>
+  <si>
+    <t>get used to + ing</t>
+  </si>
+  <si>
+    <t>przyzwyczaic sie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disgust </t>
+  </si>
+  <si>
+    <t>wsret</t>
+  </si>
+  <si>
+    <t xml:space="preserve">whim </t>
+  </si>
+  <si>
+    <t>kaprys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">volatile </t>
+  </si>
+  <si>
+    <t>ulotny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">incomprehensible </t>
+  </si>
+  <si>
+    <t>niezrozumialy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doom </t>
+  </si>
+  <si>
+    <t>przeznaczenie, los</t>
+  </si>
+  <si>
+    <t xml:space="preserve">greedy </t>
+  </si>
+  <si>
+    <t>chciwy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">greed </t>
+  </si>
+  <si>
+    <t>chciwosc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stuffy </t>
+  </si>
+  <si>
+    <t>duszno</t>
+  </si>
+  <si>
+    <t>i had better move downstairs</t>
+  </si>
+  <si>
+    <t>i had better not go downstairs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stretcher </t>
+  </si>
+  <si>
+    <t>nosze</t>
+  </si>
+  <si>
+    <t>appear = occur = turn out</t>
+  </si>
+  <si>
+    <t>okazac sie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tricky </t>
+  </si>
+  <si>
+    <t>podchwytliwy, trudny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trick </t>
+  </si>
+  <si>
+    <t>podstep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trap </t>
+  </si>
+  <si>
+    <t>uwiezic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apply </t>
+  </si>
+  <si>
+    <t>aplikowac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bruise </t>
+  </si>
+  <si>
+    <t>siniak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">athletics </t>
+  </si>
+  <si>
+    <t>lekkoatletyka</t>
+  </si>
+  <si>
+    <t>angry with</t>
+  </si>
+  <si>
+    <t>zly na kogos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stimulant </t>
+  </si>
+  <si>
+    <t>bodziec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scene </t>
+  </si>
+  <si>
+    <t>miejsce (wypadku, zbrodni)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gaze </t>
+  </si>
+  <si>
+    <t>gapic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ward </t>
+  </si>
+  <si>
+    <t>oddzial szpitalny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wage </t>
+  </si>
+  <si>
+    <t>tygodniowka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">handyman </t>
+  </si>
+  <si>
+    <t>zlota raczka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dash </t>
+  </si>
+  <si>
+    <t xml:space="preserve">zerwac się, </t>
+  </si>
+  <si>
+    <t>couldn't take place</t>
+  </si>
+  <si>
+    <t>bring out</t>
+  </si>
+  <si>
+    <t>uwypuklić, wydobyć, wyprodukować</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="53"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>bring out </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>a book</t>
+    </r>
+  </si>
+  <si>
+    <t> wydać książkę</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hail </t>
+  </si>
+  <si>
+    <t>grad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be allergic to sth </t>
+  </si>
+  <si>
+    <t>complain of</t>
+  </si>
+  <si>
+    <t>zalic sie</t>
+  </si>
+  <si>
+    <t>Complain about</t>
+  </si>
+  <si>
+    <t>in search of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w poszukiwaniu </t>
+  </si>
+  <si>
+    <t>do you happen to know?</t>
+  </si>
+  <si>
+    <t>czy przypadkiem nie wiesz?</t>
+  </si>
+  <si>
+    <t>despite sth</t>
+  </si>
+  <si>
+    <t>in spite of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bailout </t>
+  </si>
+  <si>
+    <t>kaucja</t>
+  </si>
+  <si>
+    <t>to let it go</t>
+  </si>
+  <si>
+    <t>dac sobie spokoj</t>
+  </si>
+  <si>
+    <t>on my own account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allowance </t>
+  </si>
+  <si>
+    <t>zasiłek, kieszonkowe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stand </t>
+  </si>
+  <si>
+    <t>znosic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spare </t>
+  </si>
+  <si>
+    <t>zamienny, wolny, dodatkowy, oszczędny</t>
+  </si>
+  <si>
+    <t>to coincide</t>
+  </si>
+  <si>
+    <t>pokrywać się, zbiegać się w czasie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">public </t>
+  </si>
+  <si>
+    <t>ludzie</t>
+  </si>
+  <si>
+    <t>make aware of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uswiadomic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">multiply </t>
+  </si>
+  <si>
+    <t>rozmnazac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">utensils </t>
+  </si>
+  <si>
+    <t>przybory, sprzet, urzadzenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dormant </t>
+  </si>
+  <si>
+    <t>uspiony</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spoil </t>
+  </si>
+  <si>
+    <t>zepsuc, rozpiescic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rotten </t>
+  </si>
+  <si>
+    <t>zgnily</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rot </t>
+  </si>
+  <si>
+    <t>gnic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">defreeze </t>
+  </si>
+  <si>
+    <t>odmrozic</t>
+  </si>
+  <si>
+    <t>a second helping</t>
+  </si>
+  <si>
+    <t>dokladka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">takeaway </t>
+  </si>
+  <si>
+    <t>na wynos</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>to refuse </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="53"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>firmly</t>
+    </r>
+  </si>
+  <si>
+    <t>stanowczo odmówić</t>
+  </si>
+  <si>
+    <t>took up</t>
+  </si>
+  <si>
+    <t>zająć się, podjąć</t>
+  </si>
+  <si>
+    <t>drift out of control</t>
+  </si>
+  <si>
+    <t>seal of approval</t>
+  </si>
+  <si>
+    <t>come around</t>
+  </si>
+  <si>
+    <t>stall</t>
+  </si>
+  <si>
+    <t>stoisko, stragan</t>
+  </si>
+  <si>
+    <t>custom</t>
+  </si>
+  <si>
+    <t>zwyczaj, nawyk</t>
+  </si>
+  <si>
+    <t>marvel</t>
+  </si>
+  <si>
+    <t>cud, dziwić się</t>
+  </si>
+  <si>
+    <t>quaint</t>
+  </si>
+  <si>
+    <t>dziwny, osobliwy</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>hive of activity</t>
+  </si>
+  <si>
+    <t>miejsce ciężkiej pracy</t>
+  </si>
+  <si>
+    <t>ware</t>
+  </si>
+  <si>
+    <t>towar, wyrób</t>
+  </si>
+  <si>
+    <t>surplus</t>
+  </si>
+  <si>
+    <t>nadmiar, nadwyżka</t>
+  </si>
+  <si>
+    <t>part with sth</t>
+  </si>
+  <si>
+    <t>niechętnie pozbyć się czegoś</t>
+  </si>
+  <si>
+    <t>hesitant</t>
+  </si>
+  <si>
+    <t>wahający się, niezdecydowany</t>
+  </si>
+  <si>
+    <t>hustle</t>
+  </si>
+  <si>
+    <t>popychać, wypychać</t>
+  </si>
+  <si>
+    <t>bustle</t>
+  </si>
+  <si>
+    <t>popędzać, krzątać się</t>
+  </si>
+  <si>
+    <t>wander</t>
+  </si>
+  <si>
+    <t>zbaczać. Błądzić, wędrować</t>
+  </si>
+  <si>
+    <t>shriek</t>
+  </si>
+  <si>
+    <t>wrzask, pisk</t>
+  </si>
+  <si>
+    <t>bargain</t>
+  </si>
+  <si>
+    <t>transakcja</t>
+  </si>
+  <si>
+    <t>cope</t>
+  </si>
+  <si>
+    <t>dawać radę , radzić sobie</t>
+  </si>
+  <si>
+    <t>weave  wove, woven</t>
+  </si>
+  <si>
+    <t>splatać, pleść</t>
+  </si>
+  <si>
+    <t>crown</t>
+  </si>
+  <si>
+    <t>hustle and bustle</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="53"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>play </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="53"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>time</t>
+    </r>
+  </si>
+  <si>
+    <t>grać na zwłokę</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="53"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>time passes</t>
+    </r>
+  </si>
+  <si>
+    <t>czas mija</t>
+  </si>
+  <si>
+    <t>tremendous</t>
+  </si>
+  <si>
+    <t>olbrzymi, ogromny, wspaniały</t>
+  </si>
+  <si>
+    <t>limestone</t>
+  </si>
+  <si>
+    <t>wapień</t>
+  </si>
+  <si>
+    <t>beady</t>
+  </si>
+  <si>
+    <t>small and bright</t>
+  </si>
+  <si>
+    <t>towering</t>
+  </si>
+  <si>
+    <t>niebotyczny, górujący (nad), przewyższający</t>
+  </si>
+  <si>
+    <t>is like no other place on Earth</t>
+  </si>
+  <si>
+    <t>niepodobny do innego miejsca na Ziemi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">burst - </t>
+  </si>
+  <si>
+    <t>peknac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trip </t>
+  </si>
+  <si>
+    <t>wycieczka w jendo miejsce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">voyage </t>
+  </si>
+  <si>
+    <t>podroz morska</t>
+  </si>
+  <si>
+    <t xml:space="preserve">journey </t>
+  </si>
+  <si>
+    <t>podroz kazdym srodkiem</t>
+  </si>
+  <si>
+    <t>how was joyrney to/from work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crossing </t>
+  </si>
+  <si>
+    <t>przemierzac zwykle promem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cruise </t>
+  </si>
+  <si>
+    <t>rejs (wakacyjny)</t>
+  </si>
+  <si>
+    <t>make up</t>
+  </si>
+  <si>
+    <t>wymyslic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denouncer </t>
+  </si>
+  <si>
+    <t>donosiciel</t>
+  </si>
+  <si>
+    <t>lie to sb</t>
+  </si>
+  <si>
+    <t>truthfulness</t>
+  </si>
+  <si>
+    <t>wiarygodnosc, prawdomownosci</t>
+  </si>
+  <si>
+    <t>pork pie</t>
+  </si>
+  <si>
+    <t>sciema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">telltale  </t>
+  </si>
+  <si>
+    <t>zdradziecki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">smirk </t>
+  </si>
+  <si>
+    <t>ironiczny usmiech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">situation </t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carry away </t>
+  </si>
+  <si>
+    <t>oszalec</t>
+  </si>
+  <si>
+    <t>come across</t>
+  </si>
+  <si>
+    <t>natknac sie</t>
+  </si>
+  <si>
+    <t>give away</t>
+  </si>
+  <si>
+    <t>rozdac</t>
+  </si>
+  <si>
+    <t>keep on</t>
+  </si>
+  <si>
+    <t>continue</t>
+  </si>
+  <si>
+    <t>put off</t>
+  </si>
+  <si>
+    <t>postpone</t>
+  </si>
+  <si>
+    <t>take in</t>
+  </si>
+  <si>
+    <t>zatrudnic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">squint </t>
+  </si>
+  <si>
+    <t>mruzyc oczy, zez, zezowac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glance </t>
+  </si>
+  <si>
+    <t>rzucic okiem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glimpse </t>
+  </si>
+  <si>
+    <t>mignac, zerknac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">peep </t>
+  </si>
+  <si>
+    <t>podgladac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">peer </t>
+  </si>
+  <si>
+    <t>spogladac, rozgladac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">starer </t>
+  </si>
+  <si>
+    <t>gap</t>
+  </si>
+  <si>
+    <t>wpatrywac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stare </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gapic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">glare </t>
+  </si>
+  <si>
+    <t>piorunowac wzrokiem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lane </t>
+  </si>
+  <si>
+    <t>pas ruchu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trait </t>
+  </si>
+  <si>
+    <t>ślad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conceal </t>
+  </si>
+  <si>
+    <t>ukryć</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gain </t>
+  </si>
+  <si>
+    <t>zyskać</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indifferent </t>
+  </si>
+  <si>
+    <t>obojętny, neutralny</t>
+  </si>
+  <si>
+    <t>try hard</t>
+  </si>
+  <si>
+    <t>mocno probowac</t>
+  </si>
+  <si>
+    <t>where has it been?</t>
+  </si>
+  <si>
+    <t>gdzie to bylo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mislead </t>
+  </si>
+  <si>
+    <t>wprowadzić w błąd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interlocutor </t>
+  </si>
+  <si>
+    <t>rozmówca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dizzy </t>
+  </si>
+  <si>
+    <t>zamroczony</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rapid </t>
+  </si>
+  <si>
+    <t>wartki</t>
+  </si>
+  <si>
+    <t>once per 2 years</t>
+  </si>
+  <si>
+    <t>raz na dwa lata</t>
+  </si>
+  <si>
+    <t>admission fee</t>
+  </si>
+  <si>
+    <t>oplata za wejscie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paw </t>
+  </si>
+  <si>
+    <t>łapa</t>
+  </si>
+  <si>
+    <t>stand by</t>
+  </si>
+  <si>
+    <t>stać i przyglądać się, nie opuszczać</t>
+  </si>
+  <si>
+    <t>resistant to</t>
+  </si>
+  <si>
+    <t>odporny na</t>
+  </si>
+  <si>
+    <t>misery</t>
+  </si>
+  <si>
+    <t>zalosne</t>
+  </si>
+  <si>
+    <t>announce</t>
+  </si>
+  <si>
+    <t>oglaszac</t>
+  </si>
+  <si>
+    <t>stiff</t>
+  </si>
+  <si>
+    <t>sztywny</t>
+  </si>
+  <si>
+    <t>rigorous</t>
+  </si>
+  <si>
+    <t>regorystyczny</t>
+  </si>
+  <si>
+    <t>demands</t>
+  </si>
+  <si>
+    <t>wymagania</t>
+  </si>
+  <si>
+    <t>victim</t>
+  </si>
+  <si>
+    <t>ofiara</t>
+  </si>
+  <si>
+    <t>devotion</t>
+  </si>
+  <si>
+    <t>poswiecenie</t>
+  </si>
+  <si>
+    <t>rat race</t>
+  </si>
+  <si>
+    <t>wyscig szczurow</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="63"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="63"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="53"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color indexed="62"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="2">
@@ -209,9 +1919,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -494,9 +2225,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B295"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -506,10 +2239,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -690,7 +2423,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -698,7 +2431,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -706,14 +2439,2134 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>51</v>
+      <c r="B58" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="1"/>
+      <c r="B151" s="1"/>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B153" s="1"/>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B163" s="1"/>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="1"/>
+      <c r="B177" s="1"/>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B191" s="1"/>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B192" s="6" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="B193" s="6" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B195" s="1"/>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B197" s="1"/>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="1"/>
+      <c r="B203" s="1"/>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B204" s="1"/>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="B220" s="6" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="1"/>
+      <c r="B221" s="1"/>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B223" s="1"/>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B224" s="1"/>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B225" s="1"/>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B230" s="1"/>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B246" s="6" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+      <c r="A248" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B248" s="8" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B249" s="6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B255" s="1"/>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B260" s="1"/>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B295" s="6" t="s">
+        <v>547</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>